--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.008164333333333334</v>
+        <v>0.007204333333333333</v>
       </c>
       <c r="H2">
-        <v>0.024493</v>
+        <v>0.021613</v>
       </c>
       <c r="I2">
-        <v>0.01189809984047132</v>
+        <v>0.01038998123717357</v>
       </c>
       <c r="J2">
-        <v>0.01189809984047132</v>
+        <v>0.01038998123717357</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N2">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q2">
-        <v>0.02138007305077778</v>
+        <v>0.01747507347922222</v>
       </c>
       <c r="R2">
-        <v>0.192420657457</v>
+        <v>0.157275661313</v>
       </c>
       <c r="S2">
-        <v>0.0008466578602054622</v>
+        <v>0.0006884405765942984</v>
       </c>
       <c r="T2">
-        <v>0.000846657860205462</v>
+        <v>0.0006884405765942986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.008164333333333334</v>
+        <v>0.007204333333333333</v>
       </c>
       <c r="H3">
-        <v>0.024493</v>
+        <v>0.021613</v>
       </c>
       <c r="I3">
-        <v>0.01189809984047132</v>
+        <v>0.01038998123717357</v>
       </c>
       <c r="J3">
-        <v>0.01189809984047132</v>
+        <v>0.01038998123717357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q3">
-        <v>0.126573970173</v>
+        <v>0.111690818493</v>
       </c>
       <c r="R3">
-        <v>1.139165731557</v>
+        <v>1.005217366437</v>
       </c>
       <c r="S3">
-        <v>0.005012370467110434</v>
+        <v>0.004400124072441518</v>
       </c>
       <c r="T3">
-        <v>0.005012370467110432</v>
+        <v>0.004400124072441519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.008164333333333334</v>
+        <v>0.007204333333333333</v>
       </c>
       <c r="H4">
-        <v>0.024493</v>
+        <v>0.021613</v>
       </c>
       <c r="I4">
-        <v>0.01189809984047132</v>
+        <v>0.01038998123717357</v>
       </c>
       <c r="J4">
-        <v>0.01189809984047132</v>
+        <v>0.01038998123717357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N4">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q4">
-        <v>0.1525005509058889</v>
+        <v>0.1345688321858889</v>
       </c>
       <c r="R4">
-        <v>1.372504958153</v>
+        <v>1.211119489673</v>
       </c>
       <c r="S4">
-        <v>0.006039071513155424</v>
+        <v>0.00530141658813775</v>
       </c>
       <c r="T4">
-        <v>0.006039071513155424</v>
+        <v>0.005301416588137751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6780236666666667</v>
+        <v>0.008164333333333334</v>
       </c>
       <c r="H5">
-        <v>2.034071</v>
+        <v>0.024493</v>
       </c>
       <c r="I5">
-        <v>0.9881019001595287</v>
+        <v>0.0117744788063708</v>
       </c>
       <c r="J5">
-        <v>0.9881019001595286</v>
+        <v>0.0117744788063708</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N5">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O5">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P5">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q5">
-        <v>1.775551650286555</v>
+        <v>0.01980368179922222</v>
       </c>
       <c r="R5">
-        <v>15.979964852579</v>
+        <v>0.178233136193</v>
       </c>
       <c r="S5">
-        <v>0.07031242397280793</v>
+        <v>0.0007801774414715288</v>
       </c>
       <c r="T5">
-        <v>0.07031242397280792</v>
+        <v>0.000780177441471529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6780236666666667</v>
+        <v>0.008164333333333334</v>
       </c>
       <c r="H6">
-        <v>2.034071</v>
+        <v>0.024493</v>
       </c>
       <c r="I6">
-        <v>0.9881019001595287</v>
+        <v>0.0117744788063708</v>
       </c>
       <c r="J6">
-        <v>0.9881019001595286</v>
+        <v>0.0117744788063708</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q6">
-        <v>10.511592785031</v>
+        <v>0.126573970173</v>
       </c>
       <c r="R6">
-        <v>94.604335065279</v>
+        <v>1.139165731557</v>
       </c>
       <c r="S6">
-        <v>0.4162624998328415</v>
+        <v>0.004986454398108089</v>
       </c>
       <c r="T6">
-        <v>0.4162624998328414</v>
+        <v>0.004986454398108089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.008164333333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.024493</v>
+      </c>
+      <c r="I7">
+        <v>0.0117744788063708</v>
+      </c>
+      <c r="J7">
+        <v>0.0117744788063708</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>18.67887366666667</v>
+      </c>
+      <c r="N7">
+        <v>56.03662100000001</v>
+      </c>
+      <c r="O7">
+        <v>0.5102431339500588</v>
+      </c>
+      <c r="P7">
+        <v>0.5102431339500588</v>
+      </c>
+      <c r="Q7">
+        <v>0.1525005509058889</v>
+      </c>
+      <c r="R7">
+        <v>1.372504958153</v>
+      </c>
+      <c r="S7">
+        <v>0.006007846966791188</v>
+      </c>
+      <c r="T7">
+        <v>0.006007846966791188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6780236666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.034071</v>
+      </c>
+      <c r="I8">
+        <v>0.9778355399564556</v>
+      </c>
+      <c r="J8">
+        <v>0.9778355399564557</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.425633666666667</v>
+      </c>
+      <c r="N8">
+        <v>7.276901000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.0662600404061536</v>
+      </c>
+      <c r="P8">
+        <v>0.06626004040615362</v>
+      </c>
+      <c r="Q8">
+        <v>1.644637032663445</v>
+      </c>
+      <c r="R8">
+        <v>14.801733293971</v>
+      </c>
+      <c r="S8">
+        <v>0.06479142238808777</v>
+      </c>
+      <c r="T8">
+        <v>0.06479142238808779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>0.6780236666666667</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>2.034071</v>
       </c>
-      <c r="I7">
-        <v>0.9881019001595287</v>
-      </c>
-      <c r="J7">
-        <v>0.9881019001595286</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>18.67887366666666</v>
-      </c>
-      <c r="N7">
-        <v>56.036621</v>
-      </c>
-      <c r="O7">
-        <v>0.5075660478670347</v>
-      </c>
-      <c r="P7">
-        <v>0.5075660478670347</v>
-      </c>
-      <c r="Q7">
+      <c r="I9">
+        <v>0.9778355399564556</v>
+      </c>
+      <c r="J9">
+        <v>0.9778355399564557</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.503283</v>
+      </c>
+      <c r="N9">
+        <v>46.509849</v>
+      </c>
+      <c r="O9">
+        <v>0.4234968256437875</v>
+      </c>
+      <c r="P9">
+        <v>0.4234968256437876</v>
+      </c>
+      <c r="Q9">
+        <v>10.511592785031</v>
+      </c>
+      <c r="R9">
+        <v>94.604335065279</v>
+      </c>
+      <c r="S9">
+        <v>0.4141102471732379</v>
+      </c>
+      <c r="T9">
+        <v>0.414110247173238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6780236666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.034071</v>
+      </c>
+      <c r="I10">
+        <v>0.9778355399564556</v>
+      </c>
+      <c r="J10">
+        <v>0.9778355399564557</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.67887366666667</v>
+      </c>
+      <c r="N10">
+        <v>56.03662100000001</v>
+      </c>
+      <c r="O10">
+        <v>0.5102431339500588</v>
+      </c>
+      <c r="P10">
+        <v>0.5102431339500588</v>
+      </c>
+      <c r="Q10">
         <v>12.66471841267678</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>113.982465714091</v>
       </c>
-      <c r="S7">
-        <v>0.5015269763538793</v>
-      </c>
-      <c r="T7">
-        <v>0.5015269763538792</v>
+      <c r="S10">
+        <v>0.4989338703951299</v>
+      </c>
+      <c r="T10">
+        <v>0.4989338703951299</v>
       </c>
     </row>
   </sheetData>
